--- a/premise/data/additional_inventories/lci-ammonia.xlsx
+++ b/premise/data/additional_inventories/lci-ammonia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748189C3-FB69-3D48-8218-7D6D666D0604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D87EE-32CA-DA48-9318-568311219DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="760" windowWidth="24940" windowHeight="18880" xr2:uid="{65ACB5C6-9A71-F043-B1B5-919D021F4A57}"/>
   </bookViews>
@@ -1478,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7263A38E-0BDC-2843-B92F-206445D00D40}">
   <dimension ref="A1:M376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="B353" sqref="B353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-ammonia.xlsx
+++ b/premise/data/additional_inventories/lci-ammonia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D87EE-32CA-DA48-9318-568311219DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0BA939-B65A-7946-AD32-A5C25F8C6B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="760" windowWidth="24940" windowHeight="18880" xr2:uid="{65ACB5C6-9A71-F043-B1B5-919D021F4A57}"/>
   </bookViews>
@@ -191,9 +191,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>catalysts for ammonia from SMR</t>
-  </si>
-  <si>
     <t>market for chemical factory, organics</t>
   </si>
   <si>
@@ -554,59 +551,62 @@
     <t>1.5 kg coal required for 1 kg ammonia (Al-Qahtani et al., 2021), modified to have a heavy fuel oil feedstock of 88.2 wt% carbon (Reed &amp; Kuhre, 1980) so 1.5/0.882 = 1.7 kg heavy fuel oil. carbon dioxide emissions for 1 kg ammonia are 2-2.6 kg for POX of heavy oil. 700 mg/Nm3 NOx = 0.00224 kg/kg ammonia. 0.3 ppmv H2S = 1.46e-6 kg/kg ammonia. 100 ppmv methanol = 4.58e-4 kg/kg ammonia. 30 ppmv CO = 1.2e-4 kg/kg ammonia. (Fertilizers Europe 2000). Inputs for chemical factory, nitrogen, ammonia catalyst, tap water, spent catalyst and water biosphere flows are from Carlo d'Angelo et al. (2021) Haber-Bosch of biomass gasification hydrogen. Liquid oxygen  (23.1% of 4 kg air (Fertilizers Europe, 2000)) from cryogenic air separation is added as an input which could result in an over-estimation of electricity since compression to liquid form might not be needed if the air separation is done on-site. Includes transport to consumer.</t>
   </si>
   <si>
-    <t>Based on Carlo d'Angelo et al., 2021 Supporting Information. Business-as-usual (H2 from steam methane reforming (SMR) and autothermal reforming (ATR) plant), assuming that the carbon dioxide is vented OR that it is used downstream for e.g. urea. Excess steam produced in the process was used to offset the electricity demand. Water volumes are calculated when needed based on density @ 20C (998.19 kg/m3).	
+    <t>carbon dioxide from syngas combusiton, transport and injection in a geological reservoir</t>
+  </si>
+  <si>
+    <t>carbon dioxide from syngas and flue gas combusiton, transport and injection in a geological reservoir</t>
+  </si>
+  <si>
+    <t>carbon dioxide capture, from flue gas emissions, using monoethanolamine</t>
+  </si>
+  <si>
+    <t>heat production, at co-generation natural gas-fired power plant, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 30 bar</t>
+  </si>
+  <si>
+    <t>hydrogen production, coal gasification</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
+  </si>
+  <si>
+    <t>market for oxygen, liquid</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 100 bar, from methane pyrolysis</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 100 bar</t>
+  </si>
+  <si>
+    <t>market for nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>hydrogen production, coal gasification, with CCS</t>
+  </si>
+  <si>
+    <t>Based on Carlo d'Angelo et al., 2021 Supporting Information. Business-as-usual (H2 from steam methane reforming (steam methane reforming) and autothermal reforming (ATR) plant), assuming that the carbon dioxide is vented OR that it is used downstream for e.g. urea. Excess steam produced in the process was used to offset the electricity demand. Water volumes are calculated when needed based on density @ 20C (998.19 kg/m3).	
 Methane, CO and carbon dioxide emissions to water are shown in the source documentation but not available in the biosphere3 database. Includes transport to consumer.</t>
   </si>
   <si>
-    <t>Based on Carlo d'Angelo et al., 2021 Supporting Information. Business-as-usual (H2 from SMR), assuming that the carbon dioxide from syngas is compressed and stored underground. Using global markets where available. Water volumes are calculated when needed based on density @ 20C (998.19 kg/m3). Methane, CO and carbon dioxide emissions to water are shown in the source documentation but not available in the biosphere3 database. Includes transport to consumer.</t>
-  </si>
-  <si>
-    <t>Based on Carlo d'Angelo et al., 2021 Supporting Information. Business-as-usual (H2 from SMR), assuming that the carbon dioxide from syngas and flue gas is compressed and stored underground. Using global markets where available. Water volumes are calculated when needed based on density @ 20C (998.19 kg/m3). Methane, CO and carbon dioxide emissions to water are shown in the source documentation but not available in the biosphere3 database. Includes transport to consumer.</t>
-  </si>
-  <si>
-    <t>catalyst production for ammonia synthesis from SMR</t>
-  </si>
-  <si>
-    <t>carbon dioxide from syngas combusiton, transport and injection in a geological reservoir</t>
-  </si>
-  <si>
-    <t>carbon dioxide from syngas and flue gas combusiton, transport and injection in a geological reservoir</t>
-  </si>
-  <si>
-    <t>carbon dioxide capture, from flue gas emissions, using monoethanolamine</t>
-  </si>
-  <si>
-    <t>heat production, at co-generation natural gas-fired power plant, post, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
-    <t>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous, 30 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, coal gasification</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous, low pressure</t>
-  </si>
-  <si>
-    <t>market for oxygen, liquid</t>
-  </si>
-  <si>
-    <t>hydrogen production, gaseous, 100 bar, from methane pyrolysis</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous, 100 bar</t>
-  </si>
-  <si>
-    <t>market for nitrogen, liquid</t>
-  </si>
-  <si>
-    <t>nitrogen, liquid</t>
-  </si>
-  <si>
-    <t>hydrogen production, coal gasification, with CCS</t>
+    <t>catalyst production for ammonia synthesis from steam methane reforming</t>
+  </si>
+  <si>
+    <t>catalysts for ammonia from steam methane reforming</t>
+  </si>
+  <si>
+    <t>Based on Carlo d'Angelo et al., 2021 Supporting Information. Business-as-usual (H2 from steam methane reforming), assuming that the carbon dioxide from syngas is compressed and stored underground. Using global markets where available. Water volumes are calculated when needed based on density @ 20C (998.19 kg/m3). Methane, CO and carbon dioxide emissions to water are shown in the source documentation but not available in the biosphere3 database. Includes transport to consumer.</t>
+  </si>
+  <si>
+    <t>Based on Carlo d'Angelo et al., 2021 Supporting Information. Business-as-usual (H2 from steam methane reforming), assuming that the carbon dioxide from syngas and flue gas is compressed and stored underground. Using global markets where available. Water volumes are calculated when needed based on density @ 20C (998.19 kg/m3). Methane, CO and carbon dioxide emissions to water are shown in the source documentation but not available in the biosphere3 database. Includes transport to consumer.</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1097,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1478,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7263A38E-0BDC-2843-B92F-206445D00D40}">
   <dimension ref="A1:M376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
       <selection activeCell="B353" sqref="B353"/>
     </sheetView>
   </sheetViews>
@@ -1500,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1524,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1616,7 +1619,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1634,7 +1637,7 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1757,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1781,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1838,7 +1841,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>1.41E-2</v>
@@ -1847,10 +1850,10 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
         <v>70</v>
-      </c>
-      <c r="F28" t="s">
-        <v>71</v>
       </c>
       <c r="G28" t="s">
         <v>20</v>
@@ -1858,7 +1861,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>11.5</v>
@@ -1870,7 +1873,7 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
         <v>20</v>
@@ -1878,7 +1881,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30">
         <v>8.5100000000000002E-3</v>
@@ -1887,10 +1890,10 @@
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
@@ -1898,7 +1901,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>8.5100000000000002E-3</v>
@@ -1907,10 +1910,10 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -1918,7 +1921,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32">
         <v>1000</v>
@@ -1936,12 +1939,12 @@
         <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33">
         <v>1.9400000000000001E-3</v>
@@ -1959,12 +1962,12 @@
         <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34">
         <v>9.8700000000000003E-3</v>
@@ -1982,12 +1985,12 @@
         <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35">
         <v>14.1</v>
@@ -1999,18 +2002,18 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
         <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36">
         <v>1.02</v>
@@ -2028,12 +2031,12 @@
         <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37">
         <v>8.2200000000000006E-5</v>
@@ -2045,18 +2048,18 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
         <v>86</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38">
         <v>1.9699999999999999E-2</v>
@@ -2074,12 +2077,12 @@
         <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>1.02</v>
@@ -2097,12 +2100,12 @@
         <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40">
         <v>3.6999999999999998E-2</v>
@@ -2120,12 +2123,12 @@
         <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41">
         <v>1.7299999999999999E-2</v>
@@ -2143,12 +2146,12 @@
         <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>1.31</v>
@@ -2160,18 +2163,18 @@
         <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" t="s">
         <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43">
         <v>4.7800000000000003E-5</v>
@@ -2189,7 +2192,7 @@
         <v>26</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2197,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2205,7 +2208,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2221,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2276,7 +2279,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2294,12 +2297,12 @@
         <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54">
         <v>0.03</v>
@@ -2317,12 +2320,12 @@
         <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55">
         <v>0.91700000000000004</v>
@@ -2340,12 +2343,12 @@
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56">
         <v>5.2499999999999998E-2</v>
@@ -2363,12 +2366,12 @@
         <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>1.78</v>
@@ -2380,13 +2383,13 @@
         <v>6</v>
       </c>
       <c r="E57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
         <v>59</v>
-      </c>
-      <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -2394,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -2402,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -2418,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -2595,7 +2598,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2613,12 +2616,12 @@
         <v>23</v>
       </c>
       <c r="H73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B74">
         <v>5.5099999999999998E-5</v>
@@ -2636,12 +2639,12 @@
         <v>26</v>
       </c>
       <c r="H74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B75">
         <v>0.17799999999999999</v>
@@ -2659,12 +2662,12 @@
         <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76" s="1">
         <v>3.29E-10</v>
@@ -2682,12 +2685,12 @@
         <v>26</v>
       </c>
       <c r="H76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77">
         <v>0.55600000000000005</v>
@@ -2699,18 +2702,18 @@
         <v>6</v>
       </c>
       <c r="E77" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" t="s">
         <v>59</v>
-      </c>
-      <c r="G77" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B78">
         <v>0.81499999999999995</v>
@@ -2728,12 +2731,12 @@
         <v>26</v>
       </c>
       <c r="H78" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79">
         <v>-5.5099999999999998E-5</v>
@@ -2751,12 +2754,12 @@
         <v>26</v>
       </c>
       <c r="H79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80">
         <v>0.25</v>
@@ -2768,18 +2771,18 @@
         <v>33</v>
       </c>
       <c r="E80" t="s">
+        <v>65</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" t="s">
         <v>66</v>
-      </c>
-      <c r="G80" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81">
         <v>4.3999999999999997E-2</v>
@@ -2791,18 +2794,18 @@
         <v>33</v>
       </c>
       <c r="E81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G81" t="s">
         <v>26</v>
       </c>
       <c r="H81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82">
         <v>0.151</v>
@@ -2814,18 +2817,18 @@
         <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G82" t="s">
         <v>26</v>
       </c>
       <c r="H82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83">
         <v>0.84099999999999997</v>
@@ -2837,13 +2840,13 @@
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G83" t="s">
         <v>26</v>
       </c>
       <c r="H83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -2851,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -2859,7 +2862,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -2875,7 +2878,7 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -3052,7 +3055,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3070,12 +3073,12 @@
         <v>23</v>
       </c>
       <c r="H99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B100">
         <v>5.5099999999999998E-5</v>
@@ -3093,12 +3096,12 @@
         <v>26</v>
       </c>
       <c r="H100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B101">
         <v>0.17799999999999999</v>
@@ -3116,12 +3119,12 @@
         <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B102" s="1">
         <v>3.29E-10</v>
@@ -3139,12 +3142,12 @@
         <v>26</v>
       </c>
       <c r="H102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B103">
         <v>0.55600000000000005</v>
@@ -3156,18 +3159,18 @@
         <v>6</v>
       </c>
       <c r="E103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" t="s">
         <v>59</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B104">
         <v>0.81499999999999995</v>
@@ -3185,12 +3188,12 @@
         <v>26</v>
       </c>
       <c r="H104" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B105">
         <v>-5.5099999999999998E-5</v>
@@ -3208,12 +3211,12 @@
         <v>26</v>
       </c>
       <c r="H105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B106">
         <v>0.25</v>
@@ -3225,18 +3228,18 @@
         <v>33</v>
       </c>
       <c r="E106" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" t="s">
         <v>66</v>
-      </c>
-      <c r="G106" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B107">
         <v>4.3999999999999997E-2</v>
@@ -3248,18 +3251,18 @@
         <v>33</v>
       </c>
       <c r="E107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G107" t="s">
         <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B108">
         <v>0.151</v>
@@ -3271,18 +3274,18 @@
         <v>33</v>
       </c>
       <c r="E108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G108" t="s">
         <v>26</v>
       </c>
       <c r="H108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109">
         <v>0.84099999999999997</v>
@@ -3294,13 +3297,13 @@
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G109" t="s">
         <v>26</v>
       </c>
       <c r="H109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -3308,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -3316,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -3332,7 +3335,7 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -3509,7 +3512,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3527,12 +3530,12 @@
         <v>23</v>
       </c>
       <c r="H125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B126">
         <v>5.5099999999999998E-5</v>
@@ -3550,12 +3553,12 @@
         <v>26</v>
       </c>
       <c r="H126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B127" s="1">
         <v>3.29E-10</v>
@@ -3573,12 +3576,12 @@
         <v>26</v>
       </c>
       <c r="H127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B128">
         <v>0.17599999999999999</v>
@@ -3596,12 +3599,12 @@
         <v>26</v>
       </c>
       <c r="H128" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B129">
         <v>0.55600000000000005</v>
@@ -3613,18 +3616,18 @@
         <v>6</v>
       </c>
       <c r="E129" t="s">
+        <v>58</v>
+      </c>
+      <c r="G129" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129" t="s">
         <v>59</v>
-      </c>
-      <c r="G129" t="s">
-        <v>26</v>
-      </c>
-      <c r="H129" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B130">
         <v>0.81499999999999995</v>
@@ -3642,12 +3645,12 @@
         <v>26</v>
       </c>
       <c r="H130" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B131">
         <v>-5.5099999999999998E-5</v>
@@ -3665,12 +3668,12 @@
         <v>26</v>
       </c>
       <c r="H131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B132">
         <v>0.25</v>
@@ -3682,18 +3685,18 @@
         <v>33</v>
       </c>
       <c r="E132" t="s">
+        <v>65</v>
+      </c>
+      <c r="G132" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" t="s">
         <v>66</v>
-      </c>
-      <c r="G132" t="s">
-        <v>26</v>
-      </c>
-      <c r="H132" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B133">
         <v>4.3999999999999997E-2</v>
@@ -3705,18 +3708,18 @@
         <v>33</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G133" t="s">
         <v>26</v>
       </c>
       <c r="H133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B134">
         <v>0.151</v>
@@ -3728,18 +3731,18 @@
         <v>33</v>
       </c>
       <c r="E134" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G134" t="s">
         <v>26</v>
       </c>
       <c r="H134" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B135">
         <v>0.84099999999999997</v>
@@ -3751,13 +3754,13 @@
         <v>6</v>
       </c>
       <c r="E135" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G135" t="s">
         <v>26</v>
       </c>
       <c r="H135" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -3765,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -3773,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -3789,7 +3792,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -3966,7 +3969,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -3984,12 +3987,12 @@
         <v>23</v>
       </c>
       <c r="H151" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B152">
         <v>5.5099999999999998E-5</v>
@@ -4007,12 +4010,12 @@
         <v>26</v>
       </c>
       <c r="H152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B153">
         <v>0.17799999999999999</v>
@@ -4030,12 +4033,12 @@
         <v>26</v>
       </c>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B154" s="1">
         <v>3.29E-10</v>
@@ -4053,12 +4056,12 @@
         <v>26</v>
       </c>
       <c r="H154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B155">
         <v>0.55600000000000005</v>
@@ -4070,18 +4073,18 @@
         <v>6</v>
       </c>
       <c r="E155" t="s">
+        <v>58</v>
+      </c>
+      <c r="G155" t="s">
+        <v>26</v>
+      </c>
+      <c r="H155" t="s">
         <v>59</v>
-      </c>
-      <c r="G155" t="s">
-        <v>26</v>
-      </c>
-      <c r="H155" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B156">
         <v>0.81499999999999995</v>
@@ -4099,12 +4102,12 @@
         <v>26</v>
       </c>
       <c r="H156" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B157">
         <v>-5.5099999999999998E-5</v>
@@ -4122,12 +4125,12 @@
         <v>26</v>
       </c>
       <c r="H157" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B158">
         <v>0.25</v>
@@ -4139,18 +4142,18 @@
         <v>33</v>
       </c>
       <c r="E158" t="s">
+        <v>65</v>
+      </c>
+      <c r="G158" t="s">
+        <v>26</v>
+      </c>
+      <c r="H158" t="s">
         <v>66</v>
-      </c>
-      <c r="G158" t="s">
-        <v>26</v>
-      </c>
-      <c r="H158" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B159">
         <v>4.3999999999999997E-2</v>
@@ -4162,18 +4165,18 @@
         <v>33</v>
       </c>
       <c r="E159" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G159" t="s">
         <v>26</v>
       </c>
       <c r="H159" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B160">
         <v>0.151</v>
@@ -4185,18 +4188,18 @@
         <v>33</v>
       </c>
       <c r="E160" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G160" t="s">
         <v>26</v>
       </c>
       <c r="H160" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B161">
         <v>0.84099999999999997</v>
@@ -4208,13 +4211,13 @@
         <v>6</v>
       </c>
       <c r="E161" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G161" t="s">
         <v>26</v>
       </c>
       <c r="H161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -4222,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -4230,7 +4233,7 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -4254,7 +4257,7 @@
         <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -4323,7 +4326,7 @@
         <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G172" t="s">
         <v>20</v>
@@ -4351,7 +4354,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B174">
         <v>1.46E-6</v>
@@ -4371,7 +4374,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B175">
         <v>4.5800000000000002E-4</v>
@@ -4403,7 +4406,7 @@
         <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G176" t="s">
         <v>20</v>
@@ -4423,7 +4426,7 @@
         <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G177" t="s">
         <v>20</v>
@@ -4471,7 +4474,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -4489,12 +4492,12 @@
         <v>23</v>
       </c>
       <c r="H180" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B181">
         <v>5.5099999999999998E-5</v>
@@ -4512,12 +4515,12 @@
         <v>26</v>
       </c>
       <c r="H181" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B182">
         <v>0.92</v>
@@ -4535,12 +4538,12 @@
         <v>26</v>
       </c>
       <c r="H182" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B183" s="1">
         <v>3.29E-10</v>
@@ -4558,7 +4561,7 @@
         <v>26</v>
       </c>
       <c r="H183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -4586,7 +4589,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B185">
         <v>1.7</v>
@@ -4604,12 +4607,12 @@
         <v>26</v>
       </c>
       <c r="H185" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B186">
         <v>0.81499999999999995</v>
@@ -4627,12 +4630,12 @@
         <v>26</v>
       </c>
       <c r="H186" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B187">
         <v>-5.5099999999999998E-5</v>
@@ -4650,12 +4653,12 @@
         <v>26</v>
       </c>
       <c r="H187" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B188">
         <v>0.25</v>
@@ -4667,18 +4670,18 @@
         <v>33</v>
       </c>
       <c r="E188" t="s">
+        <v>65</v>
+      </c>
+      <c r="G188" t="s">
+        <v>26</v>
+      </c>
+      <c r="H188" t="s">
         <v>66</v>
-      </c>
-      <c r="G188" t="s">
-        <v>26</v>
-      </c>
-      <c r="H188" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B189">
         <v>4.3999999999999997E-2</v>
@@ -4690,18 +4693,18 @@
         <v>33</v>
       </c>
       <c r="E189" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G189" t="s">
         <v>26</v>
       </c>
       <c r="H189" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B190">
         <v>0.151</v>
@@ -4713,18 +4716,18 @@
         <v>33</v>
       </c>
       <c r="E190" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G190" t="s">
         <v>26</v>
       </c>
       <c r="H190" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B191">
         <v>0.84099999999999997</v>
@@ -4736,13 +4739,13 @@
         <v>6</v>
       </c>
       <c r="E191" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G191" t="s">
         <v>26</v>
       </c>
       <c r="H191" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -4750,15 +4753,15 @@
         <v>2</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
-      <c r="B194" t="s">
-        <v>172</v>
+      <c r="B194" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -4774,7 +4777,7 @@
         <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
@@ -5051,7 +5054,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -5069,12 +5072,12 @@
         <v>23</v>
       </c>
       <c r="H212" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B213">
         <v>3.2499999999999999E-4</v>
@@ -5092,12 +5095,12 @@
         <v>26</v>
       </c>
       <c r="H213" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B214" s="1">
         <v>4.0000000000000001E-10</v>
@@ -5115,12 +5118,12 @@
         <v>26</v>
       </c>
       <c r="H214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B215">
         <v>0.747</v>
@@ -5129,7 +5132,7 @@
         <v>25</v>
       </c>
       <c r="D215" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E215" t="s">
         <v>41</v>
@@ -5138,7 +5141,7 @@
         <v>26</v>
       </c>
       <c r="H215" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -5166,7 +5169,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B217">
         <v>-1.56E-4</v>
@@ -5184,12 +5187,12 @@
         <v>26</v>
       </c>
       <c r="H217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B218">
         <v>9.1900000000000003E-3</v>
@@ -5207,12 +5210,12 @@
         <v>26</v>
       </c>
       <c r="H218" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B219">
         <v>0.93500000000000005</v>
@@ -5224,18 +5227,18 @@
         <v>6</v>
       </c>
       <c r="E219" t="s">
+        <v>58</v>
+      </c>
+      <c r="G219" t="s">
+        <v>26</v>
+      </c>
+      <c r="H219" t="s">
         <v>59</v>
-      </c>
-      <c r="G219" t="s">
-        <v>26</v>
-      </c>
-      <c r="H219" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B220">
         <v>26.3</v>
@@ -5247,18 +5250,18 @@
         <v>6</v>
       </c>
       <c r="E220" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G220" t="s">
         <v>26</v>
       </c>
       <c r="H220" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B221">
         <v>-3.2499999999999999E-4</v>
@@ -5276,12 +5279,12 @@
         <v>26</v>
       </c>
       <c r="H221" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B222">
         <v>0.25</v>
@@ -5293,18 +5296,18 @@
         <v>33</v>
       </c>
       <c r="E222" t="s">
+        <v>65</v>
+      </c>
+      <c r="G222" t="s">
+        <v>26</v>
+      </c>
+      <c r="H222" t="s">
         <v>66</v>
-      </c>
-      <c r="G222" t="s">
-        <v>26</v>
-      </c>
-      <c r="H222" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B223">
         <v>4.3999999999999997E-2</v>
@@ -5316,18 +5319,18 @@
         <v>33</v>
       </c>
       <c r="E223" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G223" t="s">
         <v>26</v>
       </c>
       <c r="H223" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B224">
         <v>0.151</v>
@@ -5339,18 +5342,18 @@
         <v>33</v>
       </c>
       <c r="E224" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G224" t="s">
         <v>26</v>
       </c>
       <c r="H224" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B225">
         <v>0.84099999999999997</v>
@@ -5362,13 +5365,13 @@
         <v>6</v>
       </c>
       <c r="E225" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G225" t="s">
         <v>26</v>
       </c>
       <c r="H225" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
@@ -5376,7 +5379,7 @@
         <v>2</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
@@ -5384,7 +5387,7 @@
         <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
@@ -5400,7 +5403,7 @@
         <v>7</v>
       </c>
       <c r="B230" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
@@ -5677,7 +5680,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -5695,12 +5698,12 @@
         <v>23</v>
       </c>
       <c r="H246" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B247">
         <v>1.17</v>
@@ -5718,12 +5721,12 @@
         <v>26</v>
       </c>
       <c r="H247" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B248">
         <v>3.2499999999999999E-4</v>
@@ -5741,12 +5744,12 @@
         <v>26</v>
       </c>
       <c r="H248" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B249" s="1">
         <v>4.0000000000000001E-10</v>
@@ -5764,12 +5767,12 @@
         <v>26</v>
       </c>
       <c r="H249" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B250">
         <v>0.747</v>
@@ -5778,7 +5781,7 @@
         <v>25</v>
       </c>
       <c r="D250" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E250" t="s">
         <v>41</v>
@@ -5787,7 +5790,7 @@
         <v>26</v>
       </c>
       <c r="H250" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -5815,7 +5818,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B252">
         <v>-1.56E-4</v>
@@ -5833,12 +5836,12 @@
         <v>26</v>
       </c>
       <c r="H252" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B253">
         <v>9.2099999999999994E-3</v>
@@ -5856,12 +5859,12 @@
         <v>26</v>
       </c>
       <c r="H253" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B254">
         <v>0.95699999999999996</v>
@@ -5873,18 +5876,18 @@
         <v>6</v>
       </c>
       <c r="E254" t="s">
+        <v>58</v>
+      </c>
+      <c r="G254" t="s">
+        <v>26</v>
+      </c>
+      <c r="H254" t="s">
         <v>59</v>
-      </c>
-      <c r="G254" t="s">
-        <v>26</v>
-      </c>
-      <c r="H254" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B255">
         <v>26.3</v>
@@ -5896,18 +5899,18 @@
         <v>6</v>
       </c>
       <c r="E255" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G255" t="s">
         <v>26</v>
       </c>
       <c r="H255" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B256">
         <v>1.17</v>
@@ -5925,12 +5928,12 @@
         <v>26</v>
       </c>
       <c r="H256" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B257">
         <v>-3.2499999999999999E-4</v>
@@ -5948,12 +5951,12 @@
         <v>26</v>
       </c>
       <c r="H257" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B258">
         <v>0.25</v>
@@ -5965,18 +5968,18 @@
         <v>33</v>
       </c>
       <c r="E258" t="s">
+        <v>65</v>
+      </c>
+      <c r="G258" t="s">
+        <v>26</v>
+      </c>
+      <c r="H258" t="s">
         <v>66</v>
-      </c>
-      <c r="G258" t="s">
-        <v>26</v>
-      </c>
-      <c r="H258" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B259">
         <v>4.3999999999999997E-2</v>
@@ -5988,18 +5991,18 @@
         <v>33</v>
       </c>
       <c r="E259" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G259" t="s">
         <v>26</v>
       </c>
       <c r="H259" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B260">
         <v>0.151</v>
@@ -6011,18 +6014,18 @@
         <v>33</v>
       </c>
       <c r="E260" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G260" t="s">
         <v>26</v>
       </c>
       <c r="H260" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B261">
         <v>0.84099999999999997</v>
@@ -6034,13 +6037,13 @@
         <v>6</v>
       </c>
       <c r="E261" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G261" t="s">
         <v>26</v>
       </c>
       <c r="H261" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
@@ -6048,7 +6051,7 @@
         <v>2</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.2">
@@ -6056,7 +6059,7 @@
         <v>3</v>
       </c>
       <c r="B264" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
@@ -6072,7 +6075,7 @@
         <v>7</v>
       </c>
       <c r="B266" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
@@ -6349,7 +6352,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -6367,12 +6370,12 @@
         <v>23</v>
       </c>
       <c r="H282" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B283">
         <v>1.41</v>
@@ -6390,12 +6393,12 @@
         <v>26</v>
       </c>
       <c r="H283" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B284">
         <v>3.2499999999999999E-4</v>
@@ -6413,12 +6416,12 @@
         <v>26</v>
       </c>
       <c r="H284" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B285">
         <v>0.95299999999999996</v>
@@ -6430,18 +6433,18 @@
         <v>38</v>
       </c>
       <c r="E285" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G285" t="s">
         <v>26</v>
       </c>
       <c r="H285" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B286" s="1">
         <v>4.0000000000000001E-10</v>
@@ -6459,12 +6462,12 @@
         <v>26</v>
       </c>
       <c r="H286" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B287">
         <v>0.747</v>
@@ -6473,7 +6476,7 @@
         <v>25</v>
       </c>
       <c r="D287" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E287" t="s">
         <v>41</v>
@@ -6482,7 +6485,7 @@
         <v>26</v>
       </c>
       <c r="H287" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -6510,7 +6513,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B289">
         <v>-1.56E-4</v>
@@ -6528,12 +6531,12 @@
         <v>26</v>
       </c>
       <c r="H289" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B290">
         <v>9.2099999999999994E-3</v>
@@ -6551,12 +6554,12 @@
         <v>26</v>
       </c>
       <c r="H290" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B291">
         <v>0.97</v>
@@ -6568,18 +6571,18 @@
         <v>6</v>
       </c>
       <c r="E291" t="s">
+        <v>58</v>
+      </c>
+      <c r="G291" t="s">
+        <v>26</v>
+      </c>
+      <c r="H291" t="s">
         <v>59</v>
-      </c>
-      <c r="G291" t="s">
-        <v>26</v>
-      </c>
-      <c r="H291" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B292">
         <v>26.3</v>
@@ -6591,18 +6594,18 @@
         <v>6</v>
       </c>
       <c r="E292" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G292" t="s">
         <v>26</v>
       </c>
       <c r="H292" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B293">
         <v>1.41</v>
@@ -6620,12 +6623,12 @@
         <v>26</v>
       </c>
       <c r="H293" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B294">
         <v>-3.2499999999999999E-4</v>
@@ -6643,12 +6646,12 @@
         <v>26</v>
       </c>
       <c r="H294" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B295">
         <v>0.25</v>
@@ -6660,18 +6663,18 @@
         <v>33</v>
       </c>
       <c r="E295" t="s">
+        <v>65</v>
+      </c>
+      <c r="G295" t="s">
+        <v>26</v>
+      </c>
+      <c r="H295" t="s">
         <v>66</v>
-      </c>
-      <c r="G295" t="s">
-        <v>26</v>
-      </c>
-      <c r="H295" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B296">
         <v>4.3999999999999997E-2</v>
@@ -6683,18 +6686,18 @@
         <v>33</v>
       </c>
       <c r="E296" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G296" t="s">
         <v>26</v>
       </c>
       <c r="H296" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B297">
         <v>0.151</v>
@@ -6706,18 +6709,18 @@
         <v>33</v>
       </c>
       <c r="E297" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G297" t="s">
         <v>26</v>
       </c>
       <c r="H297" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B298">
         <v>0.84099999999999997</v>
@@ -6729,13 +6732,13 @@
         <v>6</v>
       </c>
       <c r="E298" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G298" t="s">
         <v>26</v>
       </c>
       <c r="H298" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -6743,7 +6746,7 @@
         <v>2</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
@@ -6751,7 +6754,7 @@
         <v>3</v>
       </c>
       <c r="B301" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -6767,7 +6770,7 @@
         <v>7</v>
       </c>
       <c r="B303" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -6822,7 +6825,7 @@
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -6840,12 +6843,12 @@
         <v>23</v>
       </c>
       <c r="G308" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B309">
         <v>2.1100000000000001E-2</v>
@@ -6863,12 +6866,12 @@
         <v>26</v>
       </c>
       <c r="G309" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B310">
         <v>1.4400000000000001E-3</v>
@@ -6886,12 +6889,12 @@
         <v>26</v>
       </c>
       <c r="G310" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B311">
         <v>0.11700000000000001</v>
@@ -6909,12 +6912,12 @@
         <v>26</v>
       </c>
       <c r="G311" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B312">
         <v>5.1000000000000004E-3</v>
@@ -6932,12 +6935,12 @@
         <v>26</v>
       </c>
       <c r="G312" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B313">
         <v>4.2999999999999999E-4</v>
@@ -6955,12 +6958,12 @@
         <v>26</v>
       </c>
       <c r="G313" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B314">
         <v>0.313</v>
@@ -6978,12 +6981,12 @@
         <v>26</v>
       </c>
       <c r="G314" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B315">
         <v>1.4400000000000001E-3</v>
@@ -7001,12 +7004,12 @@
         <v>26</v>
       </c>
       <c r="G315" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B316">
         <v>3.8100000000000002E-2</v>
@@ -7024,12 +7027,12 @@
         <v>26</v>
       </c>
       <c r="G316" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B317">
         <v>0.248</v>
@@ -7047,12 +7050,12 @@
         <v>26</v>
       </c>
       <c r="G317" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B318">
         <v>0.253</v>
@@ -7070,12 +7073,12 @@
         <v>26</v>
       </c>
       <c r="G318" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B319">
         <v>1.45</v>
@@ -7087,13 +7090,13 @@
         <v>6</v>
       </c>
       <c r="E319" t="s">
+        <v>58</v>
+      </c>
+      <c r="F319" t="s">
+        <v>26</v>
+      </c>
+      <c r="G319" t="s">
         <v>59</v>
-      </c>
-      <c r="F319" t="s">
-        <v>26</v>
-      </c>
-      <c r="G319" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
@@ -7101,7 +7104,7 @@
         <v>2</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
@@ -7125,7 +7128,7 @@
         <v>7</v>
       </c>
       <c r="B324" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.2">
@@ -7141,7 +7144,7 @@
         <v>10</v>
       </c>
       <c r="B326" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.2">
@@ -7182,7 +7185,7 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B329" s="1">
         <v>1.2E-10</v>
@@ -7202,7 +7205,7 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B330" s="1">
         <v>5.6000000000000004E-13</v>
@@ -7222,7 +7225,7 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B331" s="1">
         <v>8.3999999999999995E-13</v>
@@ -7242,7 +7245,7 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B332" s="1">
         <v>8.3999999999999995E-13</v>
@@ -7262,7 +7265,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B333" s="1">
         <v>2.4999999999999999E-13</v>
@@ -7302,7 +7305,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B335" s="1">
         <v>7.5999999999999999E-13</v>
@@ -7322,7 +7325,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B336" s="1">
         <v>7.6000000000000004E-14</v>
@@ -7342,7 +7345,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B337" s="1">
         <v>8.3999999999999995E-13</v>
@@ -7362,7 +7365,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B338" s="1">
         <v>1.5000000000000001E-12</v>
@@ -7382,7 +7385,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B339" s="1">
         <v>1E-10</v>
@@ -7422,7 +7425,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B341">
         <v>2.5799999999999999E-6</v>
@@ -7442,7 +7445,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B342" s="1">
         <v>5.1000000000000005E-13</v>
@@ -7482,7 +7485,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B344">
         <v>8.8999999999999995E-7</v>
@@ -7502,7 +7505,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B345">
         <v>8.8999999999999995E-7</v>
@@ -7522,7 +7525,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B346" s="1">
         <v>1.1200000000000001E-11</v>
@@ -7542,7 +7545,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B347">
         <v>2.8099999999999999E-7</v>
@@ -7562,7 +7565,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B348" s="1">
         <v>1.5000000000000001E-12</v>
@@ -7582,7 +7585,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -7594,13 +7597,13 @@
         <v>6</v>
       </c>
       <c r="E349" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G349" t="s">
         <v>23</v>
       </c>
       <c r="H349" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
@@ -7608,7 +7611,7 @@
         <v>2</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
@@ -7632,7 +7635,7 @@
         <v>7</v>
       </c>
       <c r="B355" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.2">
@@ -7709,7 +7712,7 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -7727,12 +7730,12 @@
         <v>23</v>
       </c>
       <c r="H361" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -7750,12 +7753,12 @@
         <v>26</v>
       </c>
       <c r="H362" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B363">
         <v>1.3099999999999999E-2</v>
@@ -7767,13 +7770,13 @@
         <v>6</v>
       </c>
       <c r="E363" t="s">
+        <v>58</v>
+      </c>
+      <c r="G363" t="s">
+        <v>26</v>
+      </c>
+      <c r="H363" t="s">
         <v>59</v>
-      </c>
-      <c r="G363" t="s">
-        <v>26</v>
-      </c>
-      <c r="H363" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
@@ -7781,7 +7784,7 @@
         <v>2</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
@@ -7805,7 +7808,7 @@
         <v>7</v>
       </c>
       <c r="B368" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
@@ -7882,7 +7885,7 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -7900,12 +7903,12 @@
         <v>23</v>
       </c>
       <c r="H374" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -7923,12 +7926,12 @@
         <v>26</v>
       </c>
       <c r="H375" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B376">
         <v>1.3099999999999999E-2</v>
@@ -7940,13 +7943,13 @@
         <v>6</v>
       </c>
       <c r="E376" t="s">
+        <v>58</v>
+      </c>
+      <c r="G376" t="s">
+        <v>26</v>
+      </c>
+      <c r="H376" t="s">
         <v>59</v>
-      </c>
-      <c r="G376" t="s">
-        <v>26</v>
-      </c>
-      <c r="H376" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-ammonia.xlsx
+++ b/premise/data/additional_inventories/lci-ammonia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0BA939-B65A-7946-AD32-A5C25F8C6B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A3135-4E18-9443-B88B-77E929FFA484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="760" windowWidth="24940" windowHeight="18880" xr2:uid="{65ACB5C6-9A71-F043-B1B5-919D021F4A57}"/>
   </bookViews>
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:M376"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B353" sqref="B353"/>
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4756,7 +4756,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>

--- a/premise/data/additional_inventories/lci-ammonia.xlsx
+++ b/premise/data/additional_inventories/lci-ammonia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A3135-4E18-9443-B88B-77E929FFA484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDE9D5F-B959-D743-A071-E0F3A0D9069E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="760" windowWidth="24940" windowHeight="18880" xr2:uid="{65ACB5C6-9A71-F043-B1B5-919D021F4A57}"/>
   </bookViews>
@@ -1101,9 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1481,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7263A38E-0BDC-2843-B92F-206445D00D40}">
   <dimension ref="A1:M376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="A356" sqref="A356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4756,7 +4754,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
